--- a/Generator_Osob/samplewrite.xlsx
+++ b/Generator_Osob/samplewrite.xlsx
@@ -6,24 +6,42 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Osoby" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>imie</t>
+    <t>hello</t>
   </si>
   <si>
-    <t>wiek</t>
+    <t>123</t>
   </si>
   <si>
-    <t>Olaf</t>
+    <t>omg</t>
   </si>
   <si>
-    <t>Oskar</t>
+    <t>isi</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>qwerty</t>
+  </si>
+  <si>
+    <t>23-03-2018</t>
+  </si>
+  <si>
+    <t>xd</t>
+  </si>
+  <si>
+    <t>mat</t>
+  </si>
+  <si>
+    <t>cos</t>
   </si>
 </sst>
 </file>
@@ -75,14 +93,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="7.125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.6015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.6953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -97,16 +115,32 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
-        <v>21.0</v>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
-      <c r="B3" t="n">
-        <v>18.0</v>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Generator_Osob/samplewrite.xlsx
+++ b/Generator_Osob/samplewrite.xlsx
@@ -12,36 +12,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>hello</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>imie</t>
+  </si>
+  <si>
+    <t>nazwisko</t>
+  </si>
+  <si>
+    <t>kod</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Armada</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Werner</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>Karol</t>
+  </si>
+  <si>
+    <t>Jak</t>
   </si>
   <si>
     <t>123</t>
   </si>
   <si>
-    <t>omg</t>
-  </si>
-  <si>
-    <t>isi</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>qwerty</t>
-  </si>
-  <si>
-    <t>23-03-2018</t>
-  </si>
-  <si>
-    <t>xd</t>
-  </si>
-  <si>
-    <t>mat</t>
-  </si>
-  <si>
-    <t>cos</t>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>Olaf</t>
+  </si>
+  <si>
+    <t>Szyszka</t>
+  </si>
+  <si>
+    <t>823</t>
+  </si>
+  <si>
+    <t>Antoni</t>
+  </si>
+  <si>
+    <t>Pietrzak</t>
+  </si>
+  <si>
+    <t>354</t>
   </si>
 </sst>
 </file>
@@ -93,14 +126,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.6953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.32421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.60546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="6.3359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -110,37 +144,74 @@
       <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
+      <c r="C1" t="s" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
